--- a/Assignments/Assignment Status.xlsx
+++ b/Assignments/Assignment Status.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://excelraind-my.sharepoint.com/personal/dhivya_dharani_excelra_com/Documents/Desktop/Data Science Assignments/Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2571D2F6-279B-4199-9DF3-E734EE493890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{2571D2F6-279B-4199-9DF3-E734EE493890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFFDF762-5762-476C-84C3-076D6563A94B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7B4DA9DE-8B06-42C9-A2FD-FD667E890D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Topic</t>
   </si>
@@ -108,13 +111,58 @@
   </si>
   <si>
     <t>Shared</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/Association%20Rules</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/Basic%20stats%20-%201</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/Basic%20stats%20-%202</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/Basics%20of%20python</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/Hypothesis%20testing</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/EDA1</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/EDA2</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/MLR</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/Clustering</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/PCA</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/Logistic%20Regression</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/Decision%20Tree</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/Random%20Forest</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/KNN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,16 +170,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,14 +209,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,172 +580,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76077AAF-130D-4874-B7B4-C13EB7963241}">
-  <dimension ref="A1:B21"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B21" xr:uid="{76077AAF-130D-4874-B7B4-C13EB7963241}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Shared"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{C81FEA13-8B27-4FCA-B06E-BA16937709E3}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{41DE630D-8943-4A76-97AE-10F8A3BCC1D7}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{21590C56-A126-42F0-9030-40AADC1F6373}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{4BFBB1C5-2A49-4A18-AC95-71357CADC710}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{BE0B9136-7908-49BA-9518-051FDC636AC1}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{E1144509-40BC-4519-A822-FE39931C7672}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{05486210-62C9-4199-9A46-FEFDCF394A4E}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{914D3F3F-852E-4C17-9CAE-3196A1821DE4}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{B268AFAA-F8B0-44AC-8350-B9BDDA73160E}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{A7904E1C-7618-4FE8-B394-65E4BBF14A87}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{28C020FB-13F9-4ED1-AB76-75C3D6647A76}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{5B128673-5285-4CF8-B2EC-9CDCB4CBA7B3}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{F893E80B-468F-417E-8F3A-C7D9C62A8546}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{03C75335-4E8A-4774-9159-3E3E48920AC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assignments/Assignment Status.xlsx
+++ b/Assignments/Assignment Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://excelraind-my.sharepoint.com/personal/dhivya_dharani_excelra_com/Documents/Desktop/Data Science Assignments/Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{2571D2F6-279B-4199-9DF3-E734EE493890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFFDF762-5762-476C-84C3-076D6563A94B}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{2571D2F6-279B-4199-9DF3-E734EE493890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE685F71-BC1E-4F9D-A3E1-0B1EFB08DBF0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7B4DA9DE-8B06-42C9-A2FD-FD667E890D89}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Topic</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Approved</t>
   </si>
   <si>
-    <t>Shared</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -156,13 +153,19 @@
   </si>
   <si>
     <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/KNN</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Completed.Need to share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +185,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -245,6 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -261,6 +272,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,17 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76077AAF-130D-4874-B7B4-C13EB7963241}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -613,10 +627,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -624,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -635,10 +649,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -646,10 +660,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -657,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -665,26 +679,26 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
@@ -695,135 +709,134 @@
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B21" xr:uid="{76077AAF-130D-4874-B7B4-C13EB7963241}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Shared"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B21" xr:uid="{76077AAF-130D-4874-B7B4-C13EB7963241}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+    <sortCondition ref="B2:B21"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{C81FEA13-8B27-4FCA-B06E-BA16937709E3}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{C81FEA13-8B27-4FCA-B06E-BA16937709E3}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{41DE630D-8943-4A76-97AE-10F8A3BCC1D7}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{21590C56-A126-42F0-9030-40AADC1F6373}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{4BFBB1C5-2A49-4A18-AC95-71357CADC710}"/>
     <hyperlink ref="C5" r:id="rId5" xr:uid="{BE0B9136-7908-49BA-9518-051FDC636AC1}"/>
     <hyperlink ref="C6" r:id="rId6" xr:uid="{E1144509-40BC-4519-A822-FE39931C7672}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{05486210-62C9-4199-9A46-FEFDCF394A4E}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{914D3F3F-852E-4C17-9CAE-3196A1821DE4}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{B268AFAA-F8B0-44AC-8350-B9BDDA73160E}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{A7904E1C-7618-4FE8-B394-65E4BBF14A87}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{28C020FB-13F9-4ED1-AB76-75C3D6647A76}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{5B128673-5285-4CF8-B2EC-9CDCB4CBA7B3}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{F893E80B-468F-417E-8F3A-C7D9C62A8546}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{03C75335-4E8A-4774-9159-3E3E48920AC9}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{914D3F3F-852E-4C17-9CAE-3196A1821DE4}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{B268AFAA-F8B0-44AC-8350-B9BDDA73160E}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{A7904E1C-7618-4FE8-B394-65E4BBF14A87}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{28C020FB-13F9-4ED1-AB76-75C3D6647A76}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{5B128673-5285-4CF8-B2EC-9CDCB4CBA7B3}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{F893E80B-468F-417E-8F3A-C7D9C62A8546}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{03C75335-4E8A-4774-9159-3E3E48920AC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assignments/Assignment Status.xlsx
+++ b/Assignments/Assignment Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://excelraind-my.sharepoint.com/personal/dhivya_dharani_excelra_com/Documents/Desktop/Data Science Assignments/Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{2571D2F6-279B-4199-9DF3-E734EE493890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE685F71-BC1E-4F9D-A3E1-0B1EFB08DBF0}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{2571D2F6-279B-4199-9DF3-E734EE493890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87EEF251-8953-47EE-BB8E-69F2057874A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7B4DA9DE-8B06-42C9-A2FD-FD667E890D89}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Topic</t>
   </si>
@@ -598,7 +598,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +793,9 @@
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,7 +809,9 @@
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">

--- a/Assignments/Assignment Status.xlsx
+++ b/Assignments/Assignment Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://excelraind-my.sharepoint.com/personal/dhivya_dharani_excelra_com/Documents/Desktop/Data Science Assignments/Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{2571D2F6-279B-4199-9DF3-E734EE493890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87EEF251-8953-47EE-BB8E-69F2057874A8}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{2571D2F6-279B-4199-9DF3-E734EE493890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB850808-8337-4B92-89AB-E2357E058820}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7B4DA9DE-8B06-42C9-A2FD-FD667E890D89}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Topic</t>
   </si>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76077AAF-130D-4874-B7B4-C13EB7963241}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +802,9 @@
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,7 +820,9 @@
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="C21" s="4"/>
     </row>
   </sheetData>

--- a/Assignments/Assignment Status.xlsx
+++ b/Assignments/Assignment Status.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://excelraind-my.sharepoint.com/personal/dhivya_dharani_excelra_com/Documents/Desktop/Data Science Assignments/Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{2571D2F6-279B-4199-9DF3-E734EE493890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB850808-8337-4B92-89AB-E2357E058820}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9083E8EC-404A-48D8-84BC-341A50B8F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7B4DA9DE-8B06-42C9-A2FD-FD667E890D89}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B4DA9DE-8B06-42C9-A2FD-FD667E890D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Topic</t>
   </si>
@@ -155,10 +144,25 @@
     <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/f2c8d44fda06db34038515dd3e330258f834c1aa/Assignments/KNN</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Completed.Need to share</t>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/blob/2e364424cec678bf5bf466c2c51702a9d79bddf5/Assignments/SVM/SVM.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/2e364424cec678bf5bf466c2c51702a9d79bddf5/Assignments/Recommendation%20System</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/2e364424cec678bf5bf466c2c51702a9d79bddf5/Assignments/XGBM%20%26%20LGBM</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/2e364424cec678bf5bf466c2c51702a9d79bddf5/Assignments/Neural%20networks</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/2e364424cec678bf5bf466c2c51702a9d79bddf5/Assignments/NLP%20and%20Naive%20Bayes</t>
+  </si>
+  <si>
+    <t>https://github.com/dhivyadharani86/Data-Science-Assignments/tree/2e364424cec678bf5bf466c2c51702a9d79bddf5/Assignments/Timeseries</t>
   </si>
 </sst>
 </file>
@@ -239,14 +243,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -597,18 +598,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76077AAF-130D-4874-B7B4-C13EB7963241}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,211 +620,225 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="4"/>
+      <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B21" xr:uid="{76077AAF-130D-4874-B7B4-C13EB7963241}"/>
@@ -845,6 +860,12 @@
     <hyperlink ref="C12" r:id="rId12" xr:uid="{5B128673-5285-4CF8-B2EC-9CDCB4CBA7B3}"/>
     <hyperlink ref="C13" r:id="rId13" xr:uid="{F893E80B-468F-417E-8F3A-C7D9C62A8546}"/>
     <hyperlink ref="C14" r:id="rId14" xr:uid="{03C75335-4E8A-4774-9159-3E3E48920AC9}"/>
+    <hyperlink ref="C15" r:id="rId15" xr:uid="{FE586AEF-1710-447C-B913-345563D457C2}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{A7C8BD41-ACA7-468C-A2CB-F849BCE588BD}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{C5373BA5-83A0-493E-94B3-A42BA858C0DF}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{7C8AE9CB-9B8C-4367-86A9-11C16DF4D512}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{0DC4B940-E86F-42C1-8018-5F35B478FEC4}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{5CD4A0D0-470D-46B9-A25B-442A2720D404}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
